--- a/Appendix/8. Study Results/8.5 Summary Of Demographic Details/8.5 Excel Doc Outling Participant Demographic Details.xlsx
+++ b/Appendix/8. Study Results/8.5 Summary Of Demographic Details/8.5 Excel Doc Outling Participant Demographic Details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Studies\Demographic Questionnares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Appendix\8. Study Results\8.5 Summary Of Demographic Details\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Appendix/8. Study Results/8.5 Summary Of Demographic Details/8.5 Excel Doc Outling Participant Demographic Details.xlsx
+++ b/Appendix/8. Study Results/8.5 Summary Of Demographic Details/8.5 Excel Doc Outling Participant Demographic Details.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Appendix/8. Study Results/8.5 Summary Of Demographic Details/8.5 Excel Doc Outling Participant Demographic Details.xlsx
+++ b/Appendix/8. Study Results/8.5 Summary Of Demographic Details/8.5 Excel Doc Outling Participant Demographic Details.xlsx
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
-    <t>Participant Demographic Questionnare Details</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Samsung Notebook 10.1 Pro</t>
+  </si>
+  <si>
+    <t>Participant Demographic Questionnare Details - Recipes For Life</t>
   </si>
 </sst>
 </file>
@@ -575,10 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -617,52 +620,52 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -670,22 +673,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>60</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -694,22 +697,22 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
       <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -717,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>60</v>
       </c>
       <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -741,25 +744,25 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -767,22 +770,22 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -791,25 +794,25 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -817,22 +820,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -841,19 +844,19 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -861,22 +864,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -885,19 +888,19 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -905,22 +908,22 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -929,25 +932,25 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
         <v>50</v>
       </c>
-      <c r="N9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" t="s">
-        <v>51</v>
-      </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -955,22 +958,22 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -979,25 +982,25 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
         <v>45</v>
       </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" t="s">
-        <v>46</v>
-      </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1005,22 +1008,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1029,19 +1032,19 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1049,22 +1052,22 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>42</v>
       </c>
       <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1073,19 +1076,19 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1093,22 +1096,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1117,25 +1120,25 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1143,22 +1146,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1167,22 +1170,22 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1190,22 +1193,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1214,19 +1217,19 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1234,6 +1237,6 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="16" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>